--- a/mma基金/MMA基金_Schema.xlsx
+++ b/mma基金/MMA基金_Schema.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="450" yWindow="90" windowWidth="8505" windowHeight="4530" tabRatio="712"/>
+    <workbookView xWindow="450" yWindow="90" windowWidth="8505" windowHeight="4530" tabRatio="712" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="MMA基金基本資料" sheetId="8" r:id="rId1"/>
     <sheet name="MMA國內基金歷任經理人" sheetId="23" r:id="rId2"/>
     <sheet name="MMA基金持股狀況_個股" sheetId="24" r:id="rId3"/>
     <sheet name="MMA基金持股狀況_分類" sheetId="25" r:id="rId4"/>
+    <sheet name=" MMA基金績效走勢" sheetId="26" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">MMA國內基金歷任經理人!$A$1:$E$9</definedName>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="136">
   <si>
     <t>Table Description</t>
   </si>
@@ -96,10 +97,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>primary key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AC0001-K23 ( 後三碼K23對應行內ID)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -141,10 +138,6 @@
   </si>
   <si>
     <t>NVARCHAR(1000)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fundID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -290,10 +283,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NVARCHAR(2000)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>指標指數</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -452,13 +441,139 @@
   <si>
     <t>fundID +  分類 + 項目 + 資料日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新時間</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMALLDATETIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mmafund.sinopac.com/w/wb/wb03a.djhtm?a=HHZ03-782</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> MMA基金績效走勢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FundID</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>比較基金(或指數)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(15)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(10)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>年化標準差(%)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sharpe</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Beta</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>淨值</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>淨值日期</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(15)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(10)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>一個月累積報酬率(%)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(10)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>三個月累積報酬率(%)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>六個月累積報酬率(%)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>一年累積報酬率(%)</t>
+  </si>
+  <si>
+    <t>二年累積報酬率(%)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>三年累積報酬率(%)</t>
+  </si>
+  <si>
+    <t>五年累積報酬率(%)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>自今年以來報酬率(%)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>自成立日起報酬率(%)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATETIME</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新時間</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>not null</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVARCHAR(1000)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(20)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <name val="新細明體"/>
@@ -500,6 +615,11 @@
       <color theme="10"/>
       <name val="新細明體"/>
       <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
       <charset val="136"/>
     </font>
   </fonts>
@@ -671,7 +791,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -740,6 +860,10 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -757,10 +881,9 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1064,10 +1187,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:F7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1083,83 +1206,81 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="31"/>
+        <v>30</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="33"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="31"/>
+        <v>31</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="33"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="25"/>
+      <c r="B3" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="27"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="25"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="27"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="25"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="27"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="25"/>
+        <v>33</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="27"/>
     </row>
     <row r="7" spans="1:6" s="3" customFormat="1" ht="17.25" customHeight="1" thickBot="1">
       <c r="A7" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="28"/>
+        <v>34</v>
+      </c>
+      <c r="B7" s="28"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="30"/>
     </row>
     <row r="8" spans="1:6" ht="17.25" thickTop="1">
       <c r="A8" s="4" t="s">
@@ -1193,26 +1314,26 @@
         <v>16</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>19</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="23" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="10" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1221,10 +1342,10 @@
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E11" s="12"/>
       <c r="F11" s="10"/>
@@ -1235,10 +1356,10 @@
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E12" s="11"/>
       <c r="F12" s="10"/>
@@ -1249,7 +1370,7 @@
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>18</v>
@@ -1263,35 +1384,35 @@
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="10"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="8" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="10"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="22" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>18</v>
@@ -1301,11 +1422,11 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>18</v>
@@ -1315,11 +1436,11 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="21" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>18</v>
@@ -1329,7 +1450,7 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="8" t="s">
@@ -1343,11 +1464,11 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>17</v>
@@ -1357,111 +1478,111 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F21" s="10"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E22" s="8"/>
       <c r="F22" s="10"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B23" s="8"/>
       <c r="C23" s="19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="10"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="19" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E24" s="11"/>
       <c r="F24" s="10"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="19" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="10"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B26" s="8"/>
       <c r="C26" s="19" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="10"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B27" s="8"/>
       <c r="C27" s="19" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="10"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B28" s="8"/>
       <c r="C28" s="19" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>18</v>
@@ -1471,17 +1592,31 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B29" s="8"/>
       <c r="C29" s="19" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>62</v>
+        <v>134</v>
       </c>
       <c r="E29" s="8"/>
       <c r="F29" s="10"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B30" s="8"/>
+      <c r="C30" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="E30" s="8"/>
+      <c r="F30" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1530,79 +1665,79 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="31"/>
+        <v>30</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="33"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="31"/>
+        <v>31</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="33"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="25"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="27"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="25"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="27"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="25"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="27"/>
     </row>
     <row r="6" spans="1:6" s="3" customFormat="1" ht="17.25" customHeight="1">
       <c r="A6" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="25"/>
+        <v>33</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="27"/>
     </row>
     <row r="7" spans="1:6" ht="17.25" thickBot="1">
       <c r="A7" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="28"/>
+        <v>34</v>
+      </c>
+      <c r="B7" s="28"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="30"/>
     </row>
     <row r="8" spans="1:6" ht="17.25" thickTop="1">
       <c r="A8" s="4" t="s">
@@ -1636,10 +1771,10 @@
         <v>16</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1648,10 +1783,10 @@
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="10"/>
@@ -1662,10 +1797,10 @@
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="10"/>
@@ -1676,10 +1811,10 @@
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E12" s="11"/>
       <c r="F12" s="10"/>
@@ -1690,10 +1825,10 @@
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="10"/>
@@ -1704,10 +1839,10 @@
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="10"/>
@@ -1718,10 +1853,10 @@
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="10"/>
@@ -1771,79 +1906,79 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="31"/>
+        <v>30</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="33"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="31"/>
+        <v>31</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="33"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="25"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="27"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="25"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="27"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="25"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="27"/>
     </row>
     <row r="6" spans="1:6" s="3" customFormat="1" ht="17.25" customHeight="1">
       <c r="A6" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="25"/>
+        <v>33</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="27"/>
     </row>
     <row r="7" spans="1:6" ht="17.25" thickBot="1">
       <c r="A7" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="28"/>
+        <v>34</v>
+      </c>
+      <c r="B7" s="28"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="30"/>
     </row>
     <row r="8" spans="1:6" ht="17.25" thickTop="1">
       <c r="A8" s="4" t="s">
@@ -1877,10 +2012,10 @@
         <v>16</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1889,10 +2024,10 @@
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>70</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>73</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="10"/>
@@ -1903,10 +2038,10 @@
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="10"/>
@@ -1917,10 +2052,10 @@
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E12" s="11"/>
       <c r="F12" s="10"/>
@@ -1931,10 +2066,10 @@
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E13" s="11"/>
       <c r="F13" s="10"/>
@@ -1945,10 +2080,10 @@
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E14" s="11"/>
       <c r="F14" s="10"/>
@@ -1998,79 +2133,79 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="31"/>
+        <v>30</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="33"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="31"/>
+        <v>31</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="33"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="25"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="27"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="25"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="27"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="25"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="27"/>
     </row>
     <row r="6" spans="1:6" s="3" customFormat="1" ht="17.25" customHeight="1">
       <c r="A6" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="25"/>
+        <v>33</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="27"/>
     </row>
     <row r="7" spans="1:6" ht="17.25" thickBot="1">
       <c r="A7" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="28"/>
+        <v>34</v>
+      </c>
+      <c r="B7" s="28"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="30"/>
     </row>
     <row r="8" spans="1:6" ht="17.25" thickTop="1">
       <c r="A8" s="4" t="s">
@@ -2104,10 +2239,10 @@
         <v>16</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2116,10 +2251,10 @@
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="10"/>
@@ -2130,10 +2265,10 @@
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="10"/>
@@ -2142,10 +2277,10 @@
       <c r="A12" s="15"/>
       <c r="B12" s="8"/>
       <c r="C12" s="20" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="10"/>
@@ -2156,10 +2291,10 @@
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="10"/>
@@ -2170,31 +2305,31 @@
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E14" s="11"/>
       <c r="F14" s="10"/>
     </row>
     <row r="19" spans="3:3">
-      <c r="C19" s="33"/>
+      <c r="C19" s="24"/>
     </row>
     <row r="20" spans="3:3">
-      <c r="C20" s="33"/>
+      <c r="C20" s="24"/>
     </row>
     <row r="21" spans="3:3">
-      <c r="C21" s="33"/>
+      <c r="C21" s="24"/>
     </row>
     <row r="22" spans="3:3">
-      <c r="C22" s="33"/>
+      <c r="C22" s="24"/>
     </row>
     <row r="23" spans="3:3">
-      <c r="C23" s="33"/>
+      <c r="C23" s="24"/>
     </row>
     <row r="24" spans="3:3">
-      <c r="C24" s="34"/>
+      <c r="C24" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2217,4 +2352,376 @@
     <brk id="5" max="1048575" man="1"/>
   </colBreaks>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.125" customWidth="1"/>
+    <col min="3" max="3" width="48.625" customWidth="1"/>
+    <col min="4" max="4" width="33.125" customWidth="1"/>
+    <col min="5" max="5" width="38.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="33"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="33"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="27"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="27"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="27"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="27"/>
+    </row>
+    <row r="7" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A7" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="28"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="30"/>
+    </row>
+    <row r="8" spans="1:6" ht="17.25" thickTop="1">
+      <c r="A8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="10"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="10"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="E12" s="11"/>
+      <c r="F12" s="10"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="E13" s="11"/>
+      <c r="F13" s="10"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="10"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="10"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="10"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E17" s="18"/>
+      <c r="F17" s="10"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E18" s="18"/>
+      <c r="F18" s="10"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="E19" s="18"/>
+      <c r="F19" s="10"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="E20" s="8"/>
+      <c r="F20" s="10"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" s="8"/>
+      <c r="C21" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="E21" s="18"/>
+      <c r="F21" s="10"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="E22" s="8"/>
+      <c r="F22" s="10"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="E23" s="8"/>
+      <c r="F23" s="10"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E24" s="11"/>
+      <c r="F24" s="10"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="E25" s="8"/>
+      <c r="F25" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F6"/>
+  </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>